--- a/example output from the 96 wells.xlsx
+++ b/example output from the 96 wells.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="70">
   <si>
     <t>group</t>
   </si>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,6 +3984,2778 @@
         <v>69</v>
       </c>
     </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>134.45625000000001</v>
+      </c>
+      <c r="D200">
+        <v>33.721874999999997</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>182.1125000000001</v>
+      </c>
+      <c r="D201">
+        <v>39.075000000000003</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>258.37812500000001</v>
+      </c>
+      <c r="D202">
+        <v>50.687499999999993</v>
+      </c>
+      <c r="E202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>80.790624999999977</v>
+      </c>
+      <c r="D203">
+        <v>22.737500000000001</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>68.893749999999997</v>
+      </c>
+      <c r="D204">
+        <v>18.3125</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>135.71875</v>
+      </c>
+      <c r="D205">
+        <v>31.40625</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>122.09375</v>
+      </c>
+      <c r="D206">
+        <v>30.465624999999999</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>106.565625</v>
+      </c>
+      <c r="D207">
+        <v>25.921875</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>159.90625</v>
+      </c>
+      <c r="D208">
+        <v>36.421875000000007</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>100.13437500000001</v>
+      </c>
+      <c r="D209">
+        <v>25.737500000000001</v>
+      </c>
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>114.06874999999999</v>
+      </c>
+      <c r="D210">
+        <v>27.278124999999999</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>176.30937499999999</v>
+      </c>
+      <c r="D211">
+        <v>38.478124999999999</v>
+      </c>
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>86.590625000000017</v>
+      </c>
+      <c r="D212">
+        <v>23.303124999999991</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>88.709375000000023</v>
+      </c>
+      <c r="D213">
+        <v>21.746874999999999</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>222.21562499999999</v>
+      </c>
+      <c r="D214">
+        <v>47.021875000000001</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>162.90624999999989</v>
+      </c>
+      <c r="D215">
+        <v>36.434375000000003</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>106.2</v>
+      </c>
+      <c r="D216">
+        <v>26.690625000000001</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>200.52812499999999</v>
+      </c>
+      <c r="D217">
+        <v>45.903124999999989</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>141.46562499999999</v>
+      </c>
+      <c r="D218">
+        <v>31.534375000000001</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>120.33750000000001</v>
+      </c>
+      <c r="D219">
+        <v>28.521875000000001</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>205.52812499999999</v>
+      </c>
+      <c r="D220">
+        <v>42.862499999999997</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>98.165625000000006</v>
+      </c>
+      <c r="D221">
+        <v>27.115625000000001</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>102.38437500000001</v>
+      </c>
+      <c r="D222">
+        <v>25.871874999999999</v>
+      </c>
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>201.90625</v>
+      </c>
+      <c r="D223">
+        <v>41.725000000000001</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>160.64687499999999</v>
+      </c>
+      <c r="D224">
+        <v>38.115625000000001</v>
+      </c>
+      <c r="E224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>112.29375</v>
+      </c>
+      <c r="D225">
+        <v>28.425000000000001</v>
+      </c>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>199.02812499999999</v>
+      </c>
+      <c r="D226">
+        <v>43.659374999999997</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>100.75624999999999</v>
+      </c>
+      <c r="D227">
+        <v>28.528124999999999</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>107.90625</v>
+      </c>
+      <c r="D228">
+        <v>25.290624999999999</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>168.33125000000001</v>
+      </c>
+      <c r="D229">
+        <v>39.568750000000001</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>100.98125</v>
+      </c>
+      <c r="D230">
+        <v>27.996874999999999</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>117.77500000000001</v>
+      </c>
+      <c r="D231">
+        <v>29.006250000000001</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>172.81874999999999</v>
+      </c>
+      <c r="D232">
+        <v>41.528125000000003</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>84.565625000000011</v>
+      </c>
+      <c r="D233">
+        <v>26.768750000000001</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>188.37187499999999</v>
+      </c>
+      <c r="D234">
+        <v>30.21875</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>186.37187499999999</v>
+      </c>
+      <c r="D235">
+        <v>42.059375000000003</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>142.54374999999999</v>
+      </c>
+      <c r="D236">
+        <v>29.612500000000001</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>181.32187500000001</v>
+      </c>
+      <c r="D237">
+        <v>33.084374999999987</v>
+      </c>
+      <c r="E237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>203.58437499999999</v>
+      </c>
+      <c r="D238">
+        <v>42.990625000000001</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>201.97187500000001</v>
+      </c>
+      <c r="D239">
+        <v>43.256249999999987</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>135.69374999999999</v>
+      </c>
+      <c r="D240">
+        <v>30.428125000000001</v>
+      </c>
+      <c r="E240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>231.15937500000001</v>
+      </c>
+      <c r="D241">
+        <v>47.92499999999999</v>
+      </c>
+      <c r="E241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>164.40625</v>
+      </c>
+      <c r="D242">
+        <v>38.996875000000003</v>
+      </c>
+      <c r="E242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>107.3875</v>
+      </c>
+      <c r="D243">
+        <v>27.196874999999999</v>
+      </c>
+      <c r="E243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>252.75312500000001</v>
+      </c>
+      <c r="D244">
+        <v>50.334375000000001</v>
+      </c>
+      <c r="E244" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>311.5968749999999</v>
+      </c>
+      <c r="D245">
+        <v>43.990624999999987</v>
+      </c>
+      <c r="E245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>153.81874999999999</v>
+      </c>
+      <c r="D246">
+        <v>30.15625</v>
+      </c>
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>366.67187499999989</v>
+      </c>
+      <c r="D247">
+        <v>56.603125000000013</v>
+      </c>
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>311.96249999999992</v>
+      </c>
+      <c r="D248">
+        <v>38.812500000000007</v>
+      </c>
+      <c r="E248" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>142.30937499999999</v>
+      </c>
+      <c r="D249">
+        <v>29.99687500000001</v>
+      </c>
+      <c r="E249" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>427.93124999999998</v>
+      </c>
+      <c r="D250">
+        <v>57.671875000000007</v>
+      </c>
+      <c r="E250" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>367.3562500000001</v>
+      </c>
+      <c r="D251">
+        <v>42.643750000000011</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>97.61562499999998</v>
+      </c>
+      <c r="D252">
+        <v>26.725000000000001</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>339.26249999999999</v>
+      </c>
+      <c r="D253">
+        <v>55.881250000000023</v>
+      </c>
+      <c r="E253" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>291.9343750000001</v>
+      </c>
+      <c r="D254">
+        <v>38.578125</v>
+      </c>
+      <c r="E254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>112.171875</v>
+      </c>
+      <c r="D255">
+        <v>25.615625000000001</v>
+      </c>
+      <c r="E255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>486.80312500000002</v>
+      </c>
+      <c r="D256">
+        <v>69.421875</v>
+      </c>
+      <c r="E256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>312.75625000000008</v>
+      </c>
+      <c r="D257">
+        <v>47.346874999999997</v>
+      </c>
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>179.55</v>
+      </c>
+      <c r="D258">
+        <v>36.431249999999991</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>410.81562500000001</v>
+      </c>
+      <c r="D259">
+        <v>66.440624999999983</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>232.45625000000001</v>
+      </c>
+      <c r="D260">
+        <v>49.053125000000023</v>
+      </c>
+      <c r="E260" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>147.66562500000001</v>
+      </c>
+      <c r="D261">
+        <v>31.946874999999999</v>
+      </c>
+      <c r="E261" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>565.09062500000005</v>
+      </c>
+      <c r="D262">
+        <v>66.165625000000006</v>
+      </c>
+      <c r="E262" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>303.578125</v>
+      </c>
+      <c r="D263">
+        <v>56.984374999999993</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>153.15</v>
+      </c>
+      <c r="D264">
+        <v>29.481249999999999</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>527.94687499999998</v>
+      </c>
+      <c r="D265">
+        <v>63.149999999999991</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>271.39375000000001</v>
+      </c>
+      <c r="D266">
+        <v>49.703124999999993</v>
+      </c>
+      <c r="E266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>148.71875</v>
+      </c>
+      <c r="D267">
+        <v>29.943749999999991</v>
+      </c>
+      <c r="E267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>495.89999999999992</v>
+      </c>
+      <c r="D268">
+        <v>68.874999999999986</v>
+      </c>
+      <c r="E268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>408.33437500000008</v>
+      </c>
+      <c r="D269">
+        <v>53.043750000000017</v>
+      </c>
+      <c r="E269" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>155.64687499999999</v>
+      </c>
+      <c r="D270">
+        <v>32.896875000000001</v>
+      </c>
+      <c r="E270" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>423.88125000000002</v>
+      </c>
+      <c r="D271">
+        <v>68.206249999999997</v>
+      </c>
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>528.77812499999993</v>
+      </c>
+      <c r="D272">
+        <v>60.262500000000003</v>
+      </c>
+      <c r="E272" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>157.01249999999999</v>
+      </c>
+      <c r="D273">
+        <v>32.809375000000003</v>
+      </c>
+      <c r="E273" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>491.08437500000002</v>
+      </c>
+      <c r="D274">
+        <v>68.237500000000011</v>
+      </c>
+      <c r="E274" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>516.03125000000011</v>
+      </c>
+      <c r="D275">
+        <v>61.55</v>
+      </c>
+      <c r="E275" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>182.19374999999999</v>
+      </c>
+      <c r="D276">
+        <v>37.778125000000003</v>
+      </c>
+      <c r="E276" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>521.36562500000002</v>
+      </c>
+      <c r="D277">
+        <v>72.90000000000002</v>
+      </c>
+      <c r="E277" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>352.91874999999999</v>
+      </c>
+      <c r="D278">
+        <v>53.743750000000013</v>
+      </c>
+      <c r="E278" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>85.715625000000003</v>
+      </c>
+      <c r="D279">
+        <v>25.26874999999999</v>
+      </c>
+      <c r="E279" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>496.70312500000011</v>
+      </c>
+      <c r="D280">
+        <v>67.290625000000006</v>
+      </c>
+      <c r="E280" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>270.42187500000011</v>
+      </c>
+      <c r="D281">
+        <v>44.946874999999999</v>
+      </c>
+      <c r="E281" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>117.30625000000001</v>
+      </c>
+      <c r="D282">
+        <v>27.646875000000001</v>
+      </c>
+      <c r="E282" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>706.90624999999989</v>
+      </c>
+      <c r="D283">
+        <v>81.346875000000026</v>
+      </c>
+      <c r="E283" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>534.83437499999991</v>
+      </c>
+      <c r="D284">
+        <v>49.58124999999999</v>
+      </c>
+      <c r="E284" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>128.875</v>
+      </c>
+      <c r="D285">
+        <v>28.71875</v>
+      </c>
+      <c r="E285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>595.4375</v>
+      </c>
+      <c r="D286">
+        <v>80.731250000000017</v>
+      </c>
+      <c r="E286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>613.49374999999998</v>
+      </c>
+      <c r="D287">
+        <v>59.415624999999991</v>
+      </c>
+      <c r="E287" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>157.39687499999999</v>
+      </c>
+      <c r="D288">
+        <v>32.46875</v>
+      </c>
+      <c r="E288" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>425.99687499999987</v>
+      </c>
+      <c r="D289">
+        <v>66.365625000000009</v>
+      </c>
+      <c r="E289" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>402.18124999999998</v>
+      </c>
+      <c r="D290">
+        <v>53.425000000000011</v>
+      </c>
+      <c r="E290" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>158.67500000000001</v>
+      </c>
+      <c r="D291">
+        <v>29.715624999999999</v>
+      </c>
+      <c r="E291" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>627.30312500000002</v>
+      </c>
+      <c r="D292">
+        <v>76.371875000000017</v>
+      </c>
+      <c r="E292" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>324.81249999999989</v>
+      </c>
+      <c r="D293">
+        <v>48.71875</v>
+      </c>
+      <c r="E293" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="D294">
+        <v>30.34375</v>
+      </c>
+      <c r="E294" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>598.91250000000002</v>
+      </c>
+      <c r="D295">
+        <v>75.88124999999998</v>
+      </c>
+      <c r="E295" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>425.78749999999991</v>
+      </c>
+      <c r="D296">
+        <v>57.834375000000001</v>
+      </c>
+      <c r="E296" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>122.871875</v>
+      </c>
+      <c r="D297">
+        <v>29.1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>595.91874999999993</v>
+      </c>
+      <c r="D298">
+        <v>65.062500000000014</v>
+      </c>
+      <c r="E298" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>494.77499999999998</v>
+      </c>
+      <c r="D299">
+        <v>65.493749999999977</v>
+      </c>
+      <c r="E299" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>180.25625000000011</v>
+      </c>
+      <c r="D300">
+        <v>34.478124999999999</v>
+      </c>
+      <c r="E300" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>646.55000000000007</v>
+      </c>
+      <c r="D301">
+        <v>75.506249999999994</v>
+      </c>
+      <c r="E301" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>467.77187500000002</v>
+      </c>
+      <c r="D302">
+        <v>63.712500000000013</v>
+      </c>
+      <c r="E302" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>105.83125</v>
+      </c>
+      <c r="D303">
+        <v>23.95</v>
+      </c>
+      <c r="E303" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>685.95624999999995</v>
+      </c>
+      <c r="D304">
+        <v>84.100000000000009</v>
+      </c>
+      <c r="E304" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>631.40312500000016</v>
+      </c>
+      <c r="D305">
+        <v>74.887500000000017</v>
+      </c>
+      <c r="E305" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>83.543750000000031</v>
+      </c>
+      <c r="D306">
+        <v>21.515625</v>
+      </c>
+      <c r="E306" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>764.43124999999975</v>
+      </c>
+      <c r="D307">
+        <v>83.931249999999991</v>
+      </c>
+      <c r="E307" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>759.33124999999995</v>
+      </c>
+      <c r="D308">
+        <v>81.521875000000009</v>
+      </c>
+      <c r="E308" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>165.74687499999999</v>
+      </c>
+      <c r="D309">
+        <v>31.459375000000001</v>
+      </c>
+      <c r="E309" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>596.43125000000009</v>
+      </c>
+      <c r="D310">
+        <v>75.681250000000006</v>
+      </c>
+      <c r="E310" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>863.14375000000018</v>
+      </c>
+      <c r="D311">
+        <v>94.681249999999991</v>
+      </c>
+      <c r="E311" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>174.26875000000001</v>
+      </c>
+      <c r="D312">
+        <v>31.831250000000001</v>
+      </c>
+      <c r="E312" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>792.84062500000005</v>
+      </c>
+      <c r="D313">
+        <v>85.484374999999986</v>
+      </c>
+      <c r="E313" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>748.00625000000002</v>
+      </c>
+      <c r="D314">
+        <v>89.909374999999983</v>
+      </c>
+      <c r="E314" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>145.52187499999999</v>
+      </c>
+      <c r="D315">
+        <v>28.209374999999991</v>
+      </c>
+      <c r="E315" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>888.72812499999998</v>
+      </c>
+      <c r="D316">
+        <v>78.778125000000003</v>
+      </c>
+      <c r="E316" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>535.19687500000009</v>
+      </c>
+      <c r="D317">
+        <v>81.53749999999998</v>
+      </c>
+      <c r="E317" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>141.80937499999999</v>
+      </c>
+      <c r="D318">
+        <v>28.934374999999999</v>
+      </c>
+      <c r="E318" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>883.80625000000009</v>
+      </c>
+      <c r="D319">
+        <v>79.990624999999994</v>
+      </c>
+      <c r="E319" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>543.66250000000002</v>
+      </c>
+      <c r="D320">
+        <v>87.28125</v>
+      </c>
+      <c r="E320" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>124.91875</v>
+      </c>
+      <c r="D321">
+        <v>27.871874999999999</v>
+      </c>
+      <c r="E321" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>796.98124999999982</v>
+      </c>
+      <c r="D322">
+        <v>75.615625000000009</v>
+      </c>
+      <c r="E322" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>738.00624999999991</v>
+      </c>
+      <c r="D323">
+        <v>88.162500000000009</v>
+      </c>
+      <c r="E323" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
+        <v>104.38124999999999</v>
+      </c>
+      <c r="D324">
+        <v>26.368749999999999</v>
+      </c>
+      <c r="E324" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>926.86249999999995</v>
+      </c>
+      <c r="D325">
+        <v>87.612500000000011</v>
+      </c>
+      <c r="E325" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>864.20000000000027</v>
+      </c>
+      <c r="D326">
+        <v>93.731250000000003</v>
+      </c>
+      <c r="E326" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327">
+        <v>137.61250000000001</v>
+      </c>
+      <c r="D327">
+        <v>29.831250000000001</v>
+      </c>
+      <c r="E327" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>852.03437500000007</v>
+      </c>
+      <c r="D328">
+        <v>90.771875000000009</v>
+      </c>
+      <c r="E328" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>749.31562500000007</v>
+      </c>
+      <c r="D329">
+        <v>90.140625</v>
+      </c>
+      <c r="E329" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>98.184374999999974</v>
+      </c>
+      <c r="D330">
+        <v>26.440625000000001</v>
+      </c>
+      <c r="E330" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>887.07812499999989</v>
+      </c>
+      <c r="D331">
+        <v>94.615625000000009</v>
+      </c>
+      <c r="E331" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>595.17500000000018</v>
+      </c>
+      <c r="D332">
+        <v>86.918750000000031</v>
+      </c>
+      <c r="E332" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>98.040625000000006</v>
+      </c>
+      <c r="D333">
+        <v>23.818750000000001</v>
+      </c>
+      <c r="E333" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>841.91562499999998</v>
+      </c>
+      <c r="D334">
+        <v>94.434375000000003</v>
+      </c>
+      <c r="E334" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>629.48125000000016</v>
+      </c>
+      <c r="D335">
+        <v>87.806250000000006</v>
+      </c>
+      <c r="E335" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>110.92812499999999</v>
+      </c>
+      <c r="D336">
+        <v>25.915625000000009</v>
+      </c>
+      <c r="E336" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>945.89687499999991</v>
+      </c>
+      <c r="D337">
+        <v>108.8625</v>
+      </c>
+      <c r="E337" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>860.03750000000002</v>
+      </c>
+      <c r="D338">
+        <v>94.674999999999983</v>
+      </c>
+      <c r="E338" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>128.86875000000001</v>
+      </c>
+      <c r="D339">
+        <v>30.406249999999989</v>
+      </c>
+      <c r="E339" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>779.11250000000007</v>
+      </c>
+      <c r="D340">
+        <v>100.97499999999999</v>
+      </c>
+      <c r="E340" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1035.95</v>
+      </c>
+      <c r="D341">
+        <v>100.034375</v>
+      </c>
+      <c r="E341" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>191.0187499999999</v>
+      </c>
+      <c r="D342">
+        <v>31.165624999999999</v>
+      </c>
+      <c r="E342" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>730.47187499999995</v>
+      </c>
+      <c r="D343">
+        <v>93.040625000000006</v>
+      </c>
+      <c r="E343" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1187.6468749999999</v>
+      </c>
+      <c r="D344">
+        <v>112.878125</v>
+      </c>
+      <c r="E344" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>145.61562499999999</v>
+      </c>
+      <c r="D345">
+        <v>27.481249999999999</v>
+      </c>
+      <c r="E345" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>768.93437500000016</v>
+      </c>
+      <c r="D346">
+        <v>101.8875</v>
+      </c>
+      <c r="E346" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1305.340625</v>
+      </c>
+      <c r="D347">
+        <v>119.55</v>
+      </c>
+      <c r="E347" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>135.66249999999999</v>
+      </c>
+      <c r="D348">
+        <v>32.209374999999987</v>
+      </c>
+      <c r="E348" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>985.71875</v>
+      </c>
+      <c r="D349">
+        <v>113.046875</v>
+      </c>
+      <c r="E349" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1486.4375</v>
+      </c>
+      <c r="D350">
+        <v>135.79374999999999</v>
+      </c>
+      <c r="E350" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>155.171875</v>
+      </c>
+      <c r="D351">
+        <v>33.037499999999987</v>
+      </c>
+      <c r="E351" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>963.25312500000007</v>
+      </c>
+      <c r="D352">
+        <v>107.71250000000001</v>
+      </c>
+      <c r="E352" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1097.9375</v>
+      </c>
+      <c r="D353">
+        <v>110.49062499999999</v>
+      </c>
+      <c r="E353" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>117.21875</v>
+      </c>
+      <c r="D354">
+        <v>32.725000000000001</v>
+      </c>
+      <c r="E354" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>1284.515625</v>
+      </c>
+      <c r="D355">
+        <v>114.175</v>
+      </c>
+      <c r="E355" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1066.346875</v>
+      </c>
+      <c r="D356">
+        <v>103.309375</v>
+      </c>
+      <c r="E356" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>128.31874999999999</v>
+      </c>
+      <c r="D357">
+        <v>31.634374999999991</v>
+      </c>
+      <c r="E357" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>1236.7281250000001</v>
+      </c>
+      <c r="D358">
+        <v>122.35625</v>
+      </c>
+      <c r="E358" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1232.54375</v>
+      </c>
+      <c r="D359">
+        <v>114.21250000000001</v>
+      </c>
+      <c r="E359" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>113.203125</v>
+      </c>
+      <c r="D360">
+        <v>29.296875</v>
+      </c>
+      <c r="E360" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>914.87812499999984</v>
+      </c>
+      <c r="D361">
+        <v>106.65625</v>
+      </c>
+      <c r="E361" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1479.6031250000001</v>
+      </c>
+      <c r="D362">
+        <v>128.92500000000001</v>
+      </c>
+      <c r="E362" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>101.75937500000001</v>
+      </c>
+      <c r="D363">
+        <v>28.03125</v>
+      </c>
+      <c r="E363" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>1401.6125</v>
+      </c>
+      <c r="D364">
+        <v>124.04062500000001</v>
+      </c>
+      <c r="E364" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>1623.903125</v>
+      </c>
+      <c r="D365">
+        <v>140.93437499999999</v>
+      </c>
+      <c r="E365" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>120.746875</v>
+      </c>
+      <c r="D366">
+        <v>26.640625</v>
+      </c>
+      <c r="E366" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>1536.128125</v>
+      </c>
+      <c r="D367">
+        <v>137.72499999999999</v>
+      </c>
+      <c r="E367" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1939.596875</v>
+      </c>
+      <c r="D368">
+        <v>151.35312500000001</v>
+      </c>
+      <c r="E368" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>90.018749999999997</v>
+      </c>
+      <c r="D369">
+        <v>27.840624999999999</v>
+      </c>
+      <c r="E369" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>1168.0093750000001</v>
+      </c>
+      <c r="D370">
+        <v>127.003125</v>
+      </c>
+      <c r="E370" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>2005.071874999999</v>
+      </c>
+      <c r="D371">
+        <v>159.23750000000001</v>
+      </c>
+      <c r="E371" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>153.23437499999989</v>
+      </c>
+      <c r="D372">
+        <v>34.33124999999999</v>
+      </c>
+      <c r="E372" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>1041.54375</v>
+      </c>
+      <c r="D373">
+        <v>126.875</v>
+      </c>
+      <c r="E373" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1873.8843750000001</v>
+      </c>
+      <c r="D374">
+        <v>144.67500000000001</v>
+      </c>
+      <c r="E374" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>117.22499999999999</v>
+      </c>
+      <c r="D375">
+        <v>24.515625</v>
+      </c>
+      <c r="E375" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>1169.51875</v>
+      </c>
+      <c r="D376">
+        <v>133.02812499999999</v>
+      </c>
+      <c r="E376" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1695.421875</v>
+      </c>
+      <c r="D377">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="E377" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>106.77187499999999</v>
+      </c>
+      <c r="D378">
+        <v>27.415624999999999</v>
+      </c>
+      <c r="E378" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>1400.23125</v>
+      </c>
+      <c r="D379">
+        <v>155.12187499999999</v>
+      </c>
+      <c r="E379" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1632.0374999999999</v>
+      </c>
+      <c r="D380">
+        <v>144.60312500000001</v>
+      </c>
+      <c r="E380" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>122.84375</v>
+      </c>
+      <c r="D381">
+        <v>26.46875</v>
+      </c>
+      <c r="E381" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>1310.5562500000001</v>
+      </c>
+      <c r="D382">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="E382" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>2074.2218750000002</v>
+      </c>
+      <c r="D383">
+        <v>159.64687499999999</v>
+      </c>
+      <c r="E383" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>219.91562500000001</v>
+      </c>
+      <c r="D384">
+        <v>39.375</v>
+      </c>
+      <c r="E384" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385">
+        <v>1236.5250000000001</v>
+      </c>
+      <c r="D385">
+        <v>154.27500000000001</v>
+      </c>
+      <c r="E385" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>2077.3156250000011</v>
+      </c>
+      <c r="D386">
+        <v>168.78125</v>
+      </c>
+      <c r="E386" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>203.30625000000001</v>
+      </c>
+      <c r="D387">
+        <v>39.193750000000001</v>
+      </c>
+      <c r="E387" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>1111.9906249999999</v>
+      </c>
+      <c r="D388">
+        <v>145.75624999999999</v>
+      </c>
+      <c r="E388" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1955.15625</v>
+      </c>
+      <c r="D389">
+        <v>147.02500000000001</v>
+      </c>
+      <c r="E389" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>188.66562500000001</v>
+      </c>
+      <c r="D390">
+        <v>42.731250000000003</v>
+      </c>
+      <c r="E390" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>934.53437499999995</v>
+      </c>
+      <c r="D391">
+        <v>135.77187499999999</v>
+      </c>
+      <c r="E391" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>2038.1875</v>
+      </c>
+      <c r="D392">
+        <v>149.31874999999999</v>
+      </c>
+      <c r="E392" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>155.7156249999999</v>
+      </c>
+      <c r="D393">
+        <v>37.221874999999997</v>
+      </c>
+      <c r="E393" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>888.17500000000018</v>
+      </c>
+      <c r="D394">
+        <v>126.421875</v>
+      </c>
+      <c r="E394" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>1837.153125000001</v>
+      </c>
+      <c r="D395">
+        <v>132.17812499999999</v>
+      </c>
+      <c r="E395" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396">
+        <v>160.4375</v>
+      </c>
+      <c r="D396">
+        <v>35.393749999999997</v>
+      </c>
+      <c r="E396" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397">
+        <v>894.75625000000002</v>
+      </c>
+      <c r="D397">
+        <v>123.35625</v>
+      </c>
+      <c r="E397" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
